--- a/ExtraOptions/Gene_absence/data/Genotype.xlsx
+++ b/ExtraOptions/Gene_absence/data/Genotype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\intern.fli.bund.local\JE\Homelaufwerke\omid.parvizi\Desktop-PC\campyR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69539D-2A29-45DC-BE25-4A58C2C6B00A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807F456-6643-43C3-8186-144FCA953387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="21000" windowHeight="9915" xr2:uid="{CE7CD79B-7AF3-4E39-9130-472D49416055}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="21000" windowHeight="9915" xr2:uid="{CE7CD79B-7AF3-4E39-9130-472D49416055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,60 @@
   </si>
   <si>
     <t>Gen3</t>
+  </si>
+  <si>
+    <t>105671|SE|Haessleholm|2016-12-01</t>
+  </si>
+  <si>
+    <t>79179|SE|Filipstad|2017-01-01</t>
+  </si>
+  <si>
+    <t>79424|SE|Kalmar|2017-03-01</t>
+  </si>
+  <si>
+    <t>79612|SE|Joenkoeping|2017-05-01</t>
+  </si>
+  <si>
+    <t>83364|SE|Lidkoeping|2017-07-01</t>
+  </si>
+  <si>
+    <t>83367|SE|Lidkoeping|2017-07-01</t>
+  </si>
+  <si>
+    <t>83376|SE|Oerebro|2017-08-01</t>
+  </si>
+  <si>
+    <t>70319|SE|Oerebro|2018-01-01</t>
+  </si>
+  <si>
+    <t>70320|SE|Malmo|2018-06-01</t>
+  </si>
+  <si>
+    <t>79180|SE|Filipstad|2018-07-01</t>
+  </si>
+  <si>
+    <t>79614|SE|Kalmar|2018-08-01</t>
+  </si>
+  <si>
+    <t>79615|SE|Kalmar|2018-08-01</t>
+  </si>
+  <si>
+    <t>107204|SE|Oerebro|2018-08-01</t>
+  </si>
+  <si>
+    <t>110224|SE|Oerebro|2018-08-01</t>
+  </si>
+  <si>
+    <t>105668|SE|Joenkoeping|2019-07-01</t>
+  </si>
+  <si>
+    <t>105670|SE|Malmoe|2019-07-01</t>
+  </si>
+  <si>
+    <t>110223|SE|Joenkoeping|2019-08-01</t>
+  </si>
+  <si>
+    <t>79418|SE|Hoeoer|2016-09-01</t>
   </si>
 </sst>
 </file>
@@ -401,10 +455,13 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -421,8 +478,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>79418</v>
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -432,8 +489,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>105671</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -443,21 +500,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>79179</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>79424</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>79612</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -467,16 +524,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>83364</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>83367</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -489,13 +546,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>83376</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>70319</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -505,8 +562,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>70320</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -516,16 +573,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>79180</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>79614</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -535,26 +592,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>79615</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>107204</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>110224</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>105668</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -564,8 +621,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>105670</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -578,8 +635,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>110223</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
